--- a/checks.xlsx
+++ b/checks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Invalid or missing email format</t>
+          <t>No data</t>
         </is>
       </c>
     </row>
@@ -508,12 +508,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Domain found in contacts</t>
+          <t>No data</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aggregate monthly data for March 2025 should be less than 1200</t>
+          <t>monthly data for March 2025 should be less than 1200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>tool_value=6190.0, target_value=2025.0, comparator=lt, period=month:2025-03, metric=None</t>
+          <t>tool_value=6190.0, target_value=1200.0, comparator=lt, period=month:2025-03, metric=None</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>tool_value=5850.0, target_value=2025.0, comparator=eq, period=month:2025-04, metric=csr_supply</t>
+          <t>tool_value=5850.0, target_value=450.0, comparator=eq, period=month:2025-04, metric=csr_supply</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>tool_value=6190.0, target_value=2025.0, comparator=ge, period=month:2025-03, metric=None</t>
+          <t>tool_value=6190.0, target_value=1000.0, comparator=eq, period=month:2025-03, metric=None</t>
         </is>
       </c>
     </row>
@@ -604,6 +604,28 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>No data</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>is email address is valid</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>evan.dummy@starlink.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Email found in contacts</t>
         </is>
       </c>
     </row>
